--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H2">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.067233</v>
+        <v>1.900405</v>
       </c>
       <c r="N2">
-        <v>3.201699</v>
+        <v>5.701215</v>
       </c>
       <c r="O2">
-        <v>0.23609279392832</v>
+        <v>0.343916381221607</v>
       </c>
       <c r="P2">
-        <v>0.23609279392832</v>
+        <v>0.343916381221607</v>
       </c>
       <c r="Q2">
-        <v>42.33571831478633</v>
+        <v>79.91422965205334</v>
       </c>
       <c r="R2">
-        <v>381.0214648330769</v>
+        <v>719.22806686848</v>
       </c>
       <c r="S2">
-        <v>0.0364938586217672</v>
+        <v>0.05483524706868244</v>
       </c>
       <c r="T2">
-        <v>0.03649385862176721</v>
+        <v>0.05483524706868245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H3">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I3">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J3">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.104696</v>
       </c>
       <c r="O3">
-        <v>0.4501593481220562</v>
+        <v>0.3682557063324254</v>
       </c>
       <c r="P3">
-        <v>0.4501593481220563</v>
+        <v>0.3682557063324254</v>
       </c>
       <c r="Q3">
-        <v>80.72173250933422</v>
+        <v>85.56984398939021</v>
       </c>
       <c r="R3">
-        <v>726.4955925840079</v>
+        <v>770.1285959045119</v>
       </c>
       <c r="S3">
-        <v>0.06958302849607904</v>
+        <v>0.05871599535172719</v>
       </c>
       <c r="T3">
-        <v>0.06958302849607904</v>
+        <v>0.0587159953517272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H4">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I4">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J4">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.159304</v>
+        <v>1.271690333333333</v>
       </c>
       <c r="N4">
-        <v>3.477912</v>
+        <v>3.815071</v>
       </c>
       <c r="O4">
-        <v>0.2564606982470342</v>
+        <v>0.2301378587587904</v>
       </c>
       <c r="P4">
-        <v>0.2564606982470343</v>
+        <v>0.2301378587587904</v>
       </c>
       <c r="Q4">
-        <v>45.98805282933066</v>
+        <v>53.4760502862791</v>
       </c>
       <c r="R4">
-        <v>413.892475463976</v>
+        <v>481.284452576512</v>
       </c>
       <c r="S4">
-        <v>0.03964221147176784</v>
+        <v>0.03669399608146077</v>
       </c>
       <c r="T4">
-        <v>0.03964221147176785</v>
+        <v>0.03669399608146078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H5">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I5">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J5">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2589606666666667</v>
+        <v>0.3187823333333333</v>
       </c>
       <c r="N5">
-        <v>0.7768820000000001</v>
+        <v>0.9563470000000001</v>
       </c>
       <c r="O5">
-        <v>0.0572871597025895</v>
+        <v>0.05769005368717723</v>
       </c>
       <c r="P5">
-        <v>0.05728715970258951</v>
+        <v>0.05769005368717724</v>
       </c>
       <c r="Q5">
-        <v>10.27262635114289</v>
+        <v>13.40516605408711</v>
       </c>
       <c r="R5">
-        <v>92.45363716028601</v>
+        <v>120.646494486784</v>
       </c>
       <c r="S5">
-        <v>0.00885511782144285</v>
+        <v>0.009198306681714903</v>
       </c>
       <c r="T5">
-        <v>0.008855117821442852</v>
+        <v>0.009198306681714907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H6">
         <v>172.981738</v>
       </c>
       <c r="I6">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J6">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.067233</v>
+        <v>1.900405</v>
       </c>
       <c r="N6">
-        <v>3.201699</v>
+        <v>5.701215</v>
       </c>
       <c r="O6">
-        <v>0.23609279392832</v>
+        <v>0.343916381221607</v>
       </c>
       <c r="P6">
-        <v>0.23609279392832</v>
+        <v>0.343916381221607</v>
       </c>
       <c r="Q6">
-        <v>61.53727306365133</v>
+        <v>109.5784532679633</v>
       </c>
       <c r="R6">
-        <v>553.835457572862</v>
+        <v>986.20607941167</v>
       </c>
       <c r="S6">
-        <v>0.0530458117293742</v>
+        <v>0.07519013302780991</v>
       </c>
       <c r="T6">
-        <v>0.05304581172937421</v>
+        <v>0.07519013302780993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H7">
         <v>172.981738</v>
       </c>
       <c r="I7">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J7">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.104696</v>
       </c>
       <c r="O7">
-        <v>0.4501593481220562</v>
+        <v>0.3682557063324254</v>
       </c>
       <c r="P7">
-        <v>0.4501593481220563</v>
+        <v>0.3682557063324254</v>
       </c>
       <c r="Q7">
         <v>117.3334360046275</v>
@@ -883,10 +883,10 @@
         <v>1056.000924041648</v>
       </c>
       <c r="S7">
-        <v>0.1011427228734068</v>
+        <v>0.08051141806340209</v>
       </c>
       <c r="T7">
-        <v>0.1011427228734068</v>
+        <v>0.0805114180634021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H8">
         <v>172.981738</v>
       </c>
       <c r="I8">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J8">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.159304</v>
+        <v>1.271690333333333</v>
       </c>
       <c r="N8">
-        <v>3.477912</v>
+        <v>3.815071</v>
       </c>
       <c r="O8">
-        <v>0.2564606982470342</v>
+        <v>0.2301378587587904</v>
       </c>
       <c r="P8">
-        <v>0.2564606982470343</v>
+        <v>0.2301378587587904</v>
       </c>
       <c r="Q8">
-        <v>66.84614026345066</v>
+        <v>73.32640135259977</v>
       </c>
       <c r="R8">
-        <v>601.615262371056</v>
+        <v>659.937612173398</v>
       </c>
       <c r="S8">
-        <v>0.05762211412232421</v>
+        <v>0.05031483569739779</v>
       </c>
       <c r="T8">
-        <v>0.05762211412232422</v>
+        <v>0.0503148356973978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H9">
         <v>172.981738</v>
       </c>
       <c r="I9">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J9">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2589606666666667</v>
+        <v>0.3187823333333333</v>
       </c>
       <c r="N9">
-        <v>0.7768820000000001</v>
+        <v>0.9563470000000001</v>
       </c>
       <c r="O9">
-        <v>0.0572871597025895</v>
+        <v>0.05769005368717723</v>
       </c>
       <c r="P9">
-        <v>0.05728715970258951</v>
+        <v>0.05769005368717724</v>
       </c>
       <c r="Q9">
-        <v>14.93182206454622</v>
+        <v>18.38117402123178</v>
       </c>
       <c r="R9">
-        <v>134.386398580916</v>
+        <v>165.430566191086</v>
       </c>
       <c r="S9">
-        <v>0.01287139618931689</v>
+        <v>0.01261272520870497</v>
       </c>
       <c r="T9">
-        <v>0.01287139618931689</v>
+        <v>0.01261272520870497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H10">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I10">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J10">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.067233</v>
+        <v>1.900405</v>
       </c>
       <c r="N10">
-        <v>3.201699</v>
+        <v>5.701215</v>
       </c>
       <c r="O10">
-        <v>0.23609279392832</v>
+        <v>0.343916381221607</v>
       </c>
       <c r="P10">
-        <v>0.23609279392832</v>
+        <v>0.343916381221607</v>
       </c>
       <c r="Q10">
-        <v>100.649639643845</v>
+        <v>188.428962261215</v>
       </c>
       <c r="R10">
-        <v>905.8467567946049</v>
+        <v>1695.860660350935</v>
       </c>
       <c r="S10">
-        <v>0.08676110541418205</v>
+        <v>0.1292954802352109</v>
       </c>
       <c r="T10">
-        <v>0.08676110541418205</v>
+        <v>0.1292954802352109</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H11">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I11">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J11">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.104696</v>
       </c>
       <c r="O11">
-        <v>0.4501593481220562</v>
+        <v>0.3682557063324254</v>
       </c>
       <c r="P11">
-        <v>0.4501593481220563</v>
+        <v>0.3682557063324254</v>
       </c>
       <c r="Q11">
-        <v>191.9091871332133</v>
+        <v>201.7642787020293</v>
       </c>
       <c r="R11">
-        <v>1727.18268419892</v>
+        <v>1815.878508318264</v>
       </c>
       <c r="S11">
-        <v>0.1654278472703198</v>
+        <v>0.138445857770663</v>
       </c>
       <c r="T11">
-        <v>0.1654278472703198</v>
+        <v>0.138445857770663</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H12">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I12">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J12">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.159304</v>
+        <v>1.271690333333333</v>
       </c>
       <c r="N12">
-        <v>3.477912</v>
+        <v>3.815071</v>
       </c>
       <c r="O12">
-        <v>0.2564606982470342</v>
+        <v>0.2301378587587904</v>
       </c>
       <c r="P12">
-        <v>0.2564606982470343</v>
+        <v>0.2301378587587904</v>
       </c>
       <c r="Q12">
-        <v>109.33276036036</v>
+        <v>126.0906437457377</v>
       </c>
       <c r="R12">
-        <v>983.99484324324</v>
+        <v>1134.815793711639</v>
       </c>
       <c r="S12">
-        <v>0.09424605175353733</v>
+        <v>0.08652040610228277</v>
       </c>
       <c r="T12">
-        <v>0.09424605175353735</v>
+        <v>0.08652040610228279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H13">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I13">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J13">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2589606666666667</v>
+        <v>0.3187823333333333</v>
       </c>
       <c r="N13">
-        <v>0.7768820000000001</v>
+        <v>0.9563470000000001</v>
       </c>
       <c r="O13">
-        <v>0.0572871597025895</v>
+        <v>0.05769005368717723</v>
       </c>
       <c r="P13">
-        <v>0.05728715970258951</v>
+        <v>0.05769005368717724</v>
       </c>
       <c r="Q13">
-        <v>24.42231244904334</v>
+        <v>31.60790687101366</v>
       </c>
       <c r="R13">
-        <v>219.80081204139</v>
+        <v>284.471161839123</v>
       </c>
       <c r="S13">
-        <v>0.02105230413489232</v>
+        <v>0.02168859526197542</v>
       </c>
       <c r="T13">
-        <v>0.02105230413489232</v>
+        <v>0.02168859526197542</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H14">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I14">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J14">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.067233</v>
+        <v>1.900405</v>
       </c>
       <c r="N14">
-        <v>3.201699</v>
+        <v>5.701215</v>
       </c>
       <c r="O14">
-        <v>0.23609279392832</v>
+        <v>0.343916381221607</v>
       </c>
       <c r="P14">
-        <v>0.23609279392832</v>
+        <v>0.343916381221607</v>
       </c>
       <c r="Q14">
-        <v>69.363397952974</v>
+        <v>123.2854093912133</v>
       </c>
       <c r="R14">
-        <v>624.2705815767659</v>
+        <v>1109.56868452092</v>
       </c>
       <c r="S14">
-        <v>0.05979201816299654</v>
+        <v>0.08459552088990377</v>
       </c>
       <c r="T14">
-        <v>0.05979201816299655</v>
+        <v>0.08459552088990378</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H15">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I15">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J15">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.104696</v>
       </c>
       <c r="O15">
-        <v>0.4501593481220562</v>
+        <v>0.3682557063324254</v>
       </c>
       <c r="P15">
-        <v>0.4501593481220563</v>
+        <v>0.3682557063324254</v>
       </c>
       <c r="Q15">
-        <v>132.2555487039627</v>
+        <v>132.0104478727609</v>
       </c>
       <c r="R15">
-        <v>1190.299938335664</v>
+        <v>1188.094030854848</v>
       </c>
       <c r="S15">
-        <v>0.1140057494822506</v>
+        <v>0.09058243514663311</v>
       </c>
       <c r="T15">
-        <v>0.1140057494822506</v>
+        <v>0.09058243514663311</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H16">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I16">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J16">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.159304</v>
+        <v>1.271690333333333</v>
       </c>
       <c r="N16">
-        <v>3.477912</v>
+        <v>3.815071</v>
       </c>
       <c r="O16">
-        <v>0.2564606982470342</v>
+        <v>0.2301378587587904</v>
       </c>
       <c r="P16">
-        <v>0.2564606982470343</v>
+        <v>0.2301378587587904</v>
       </c>
       <c r="Q16">
-        <v>75.347430880112</v>
+        <v>82.49865863531645</v>
       </c>
       <c r="R16">
-        <v>678.1268779210079</v>
+        <v>742.487927717848</v>
       </c>
       <c r="S16">
-        <v>0.06495032089940485</v>
+        <v>0.05660862087764907</v>
       </c>
       <c r="T16">
-        <v>0.06495032089940488</v>
+        <v>0.05660862087764908</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H17">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I17">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J17">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2589606666666667</v>
+        <v>0.3187823333333333</v>
       </c>
       <c r="N17">
-        <v>0.7768820000000001</v>
+        <v>0.9563470000000001</v>
       </c>
       <c r="O17">
-        <v>0.0572871597025895</v>
+        <v>0.05769005368717723</v>
       </c>
       <c r="P17">
-        <v>0.05728715970258951</v>
+        <v>0.05769005368717724</v>
       </c>
       <c r="Q17">
-        <v>16.83080618399867</v>
+        <v>20.68043941774844</v>
       </c>
       <c r="R17">
-        <v>151.477255655988</v>
+        <v>186.123954759736</v>
       </c>
       <c r="S17">
-        <v>0.01450834155693745</v>
+        <v>0.01419042653478193</v>
       </c>
       <c r="T17">
-        <v>0.01450834155693746</v>
+        <v>0.01419042653478194</v>
       </c>
     </row>
   </sheetData>
